--- a/output/StructureDefinition-SymptomProfile.xlsx
+++ b/output/StructureDefinition-SymptomProfile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -456,6 +456,23 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Observation.extension:abatement</t>
+  </si>
+  <si>
+    <t>abatement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/Abatement}
+</t>
+  </si>
+  <si>
+    <t>When in resolution/remission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Observation.extension:manifestation</t>
   </si>
   <si>
@@ -467,10 +484,6 @@
   </si>
   <si>
     <t>Manifestation or course of the symptom (e.g., acute, chronic, episodic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -680,13 +693,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://example.org/ValueSet/SymptomsVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1020,6 +1027,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1333,7 +1343,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1407,6 +1417,12 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
   </si>
@@ -1515,14 +1531,17 @@
     <t>Code for specific scale or assessment (e.g., pain scale, anxiety inventory)</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/ScaleVS</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-survey-codes</t>
   </si>
   <si>
     <t>Observation.component:assessment.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Ratio</t>
+    <t>Quantity
+CodeableConceptRatio</t>
+  </si>
+  <si>
+    <t>http://example.org/ValueSet/AssessmentValueVS</t>
   </si>
   <si>
     <t>Observation.component:assessment.dataAbsentReason</t>
@@ -1579,6 +1598,9 @@
   <si>
     <t>CodeableConcept
 string</t>
+  </si>
+  <si>
+    <t>http://example.org/ValueSet/RelatedValueVS</t>
   </si>
   <si>
     <t>Observation.component:related.dataAbsentReason</t>
@@ -1890,7 +1912,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP80"/>
+  <dimension ref="A1:AP81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1924,7 +1946,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3149,43 +3171,41 @@
         <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>20</v>
       </c>
@@ -3233,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3242,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>141</v>
@@ -3257,7 +3277,7 @@
         <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>20</v>
@@ -3268,14 +3288,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3288,23 +3308,25 @@
         <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3353,7 +3375,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3365,22 +3387,22 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>20</v>
@@ -3388,14 +3410,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3414,17 +3436,17 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3473,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3488,19 +3510,19 @@
         <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>20</v>
@@ -3508,14 +3530,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3534,18 +3556,18 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3593,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3608,16 +3630,16 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -3628,46 +3650,44 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3691,13 +3711,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3715,13 +3735,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -3730,19 +3750,19 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3750,10 +3770,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3761,41 +3781,41 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>20</v>
@@ -3813,13 +3833,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3837,13 +3857,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -3852,19 +3872,19 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3872,21 +3892,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3895,29 +3915,29 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>20</v>
@@ -3935,13 +3955,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3959,13 +3979,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -3974,38 +3994,38 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -4020,19 +4040,19 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4057,13 +4077,11 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4081,10 +4099,10 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4096,30 +4114,30 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4130,7 +4148,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -4142,18 +4160,20 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -4201,13 +4221,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -4216,19 +4236,19 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4236,21 +4256,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4262,20 +4282,18 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4323,13 +4341,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -4338,19 +4356,19 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4358,14 +4376,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4384,19 +4402,19 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4445,7 +4463,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4460,19 +4478,19 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4480,14 +4498,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4506,18 +4524,20 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4565,7 +4585,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4580,19 +4600,19 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4600,10 +4620,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4614,7 +4634,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4626,18 +4646,18 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4685,13 +4705,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -4700,19 +4720,19 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4720,10 +4740,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4734,7 +4754,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4746,19 +4766,17 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4807,45 +4825,45 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4865,22 +4883,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4905,13 +4923,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4929,7 +4947,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4938,7 +4956,7 @@
         <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>102</v>
@@ -4947,31 +4965,31 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4990,19 +5008,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5027,13 +5045,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -5051,16 +5069,16 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>102</v>
@@ -5069,38 +5087,38 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>305</v>
+        <v>133</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -5112,19 +5130,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5149,13 +5167,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5173,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5191,27 +5209,27 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5222,7 +5240,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5234,18 +5252,20 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5269,13 +5289,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5293,13 +5313,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5311,27 +5331,27 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5342,7 +5362,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5354,20 +5374,18 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5391,13 +5409,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5415,7 +5433,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5433,27 +5451,27 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>20</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5476,18 +5494,20 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5511,13 +5531,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5535,7 +5555,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5553,27 +5573,27 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5596,16 +5616,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5655,7 +5675,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5673,27 +5693,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5716,20 +5736,18 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5777,45 +5795,45 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>20</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5826,7 +5844,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5838,16 +5856,20 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5895,19 +5917,19 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -5916,10 +5938,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5930,21 +5952,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5956,17 +5978,15 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6015,19 +6035,19 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -6039,7 +6059,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6050,14 +6070,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6070,26 +6090,24 @@
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6137,7 +6155,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6161,7 +6179,7 @@
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>133</v>
+        <v>370</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6172,42 +6190,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6255,19 +6277,19 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6276,10 +6298,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>383</v>
+        <v>133</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6290,10 +6312,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6316,13 +6338,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6373,7 +6395,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6382,7 +6404,7 @@
         <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>102</v>
@@ -6394,10 +6416,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6408,10 +6430,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6434,20 +6456,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6471,13 +6489,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6495,7 +6513,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6504,7 +6522,7 @@
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>102</v>
@@ -6513,13 +6531,13 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>306</v>
+        <v>390</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6530,10 +6548,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6544,7 +6562,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6556,19 +6574,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6593,13 +6611,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6617,13 +6635,13 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -6635,13 +6653,13 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6652,10 +6670,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6666,7 +6684,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6678,17 +6696,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>405</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6713,13 +6733,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6737,13 +6757,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6755,13 +6775,13 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>409</v>
+        <v>308</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6772,10 +6792,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6798,16 +6818,18 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6855,7 +6877,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6876,10 +6898,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6890,10 +6912,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6904,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6913,20 +6935,18 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6975,13 +6995,13 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
@@ -6996,10 +7016,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7010,10 +7030,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7036,16 +7056,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7095,7 +7115,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7116,10 +7136,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7130,10 +7150,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7156,20 +7176,18 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7205,17 +7223,19 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7236,10 +7256,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7250,10 +7270,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7264,7 +7284,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7273,19 +7293,23 @@
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7321,31 +7345,29 @@
         <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7354,10 +7376,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7368,21 +7390,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7394,17 +7416,15 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7453,19 +7473,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7477,7 +7497,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7488,14 +7508,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7508,26 +7528,24 @@
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7575,7 +7593,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7599,7 +7617,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>133</v>
+        <v>370</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7610,45 +7628,45 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>441</v>
+        <v>155</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7673,13 +7691,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7697,34 +7715,34 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7732,10 +7750,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7743,7 +7761,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
@@ -7758,19 +7776,19 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7795,13 +7813,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>20</v>
+        <v>445</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>446</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7819,10 +7837,10 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -7837,27 +7855,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7877,22 +7895,22 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>449</v>
+        <v>280</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>450</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7917,13 +7935,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7941,7 +7959,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7950,7 +7968,7 @@
         <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>102</v>
@@ -7959,38 +7977,38 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -8002,19 +8020,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>453</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>454</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>300</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8039,13 +8057,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -8063,16 +8081,16 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>102</v>
@@ -8081,31 +8099,31 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>133</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8124,19 +8142,19 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>300</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>301</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8161,13 +8179,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8185,7 +8203,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8203,31 +8221,29 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8236,7 +8252,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8245,22 +8261,22 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>431</v>
+        <v>361</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8309,7 +8325,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8330,10 +8346,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8344,12 +8360,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8358,7 +8376,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8367,19 +8385,23 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>364</v>
+        <v>462</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8427,19 +8449,19 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8448,10 +8470,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8462,21 +8484,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8488,17 +8510,15 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8547,19 +8567,19 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8571,7 +8591,7 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8582,14 +8602,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8602,26 +8622,24 @@
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8669,7 +8687,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8693,7 +8711,7 @@
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>133</v>
+        <v>370</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8704,45 +8722,45 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>462</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>441</v>
+        <v>155</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8767,11 +8785,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8789,34 +8809,34 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -8824,10 +8844,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8835,7 +8855,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>90</v>
@@ -8850,19 +8870,19 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="O58" t="s" s="2">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8887,13 +8907,11 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>20</v>
+        <v>468</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8911,10 +8929,10 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>90</v>
@@ -8929,27 +8947,27 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8969,22 +8987,22 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>195</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>449</v>
+        <v>280</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>450</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9009,13 +9027,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9033,7 +9051,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9042,7 +9060,7 @@
         <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>102</v>
@@ -9051,38 +9069,38 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -9094,19 +9112,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>298</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>299</v>
+        <v>454</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>300</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9131,13 +9149,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9155,16 +9173,16 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>102</v>
@@ -9173,31 +9191,31 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>305</v>
+        <v>133</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9216,19 +9234,19 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>453</v>
+        <v>300</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>454</v>
+        <v>301</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9253,13 +9271,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -9277,7 +9295,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9295,31 +9313,29 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9337,22 +9353,22 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>431</v>
+        <v>361</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9401,7 +9417,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9422,10 +9438,10 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9436,12 +9452,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>20</v>
       </c>
@@ -9450,7 +9468,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9459,19 +9477,23 @@
         <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>364</v>
+        <v>476</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -9519,19 +9541,19 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9540,10 +9562,10 @@
         <v>20</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9554,21 +9576,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -9580,17 +9602,15 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9639,19 +9659,19 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
@@ -9663,7 +9683,7 @@
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -9674,14 +9694,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9694,26 +9714,24 @@
         <v>20</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>20</v>
       </c>
@@ -9761,7 +9779,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9785,7 +9803,7 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>133</v>
+        <v>370</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9796,45 +9814,45 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>476</v>
+        <v>377</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>441</v>
+        <v>155</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9859,11 +9877,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>477</v>
+        <v>20</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -9881,34 +9901,34 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>20</v>
@@ -9916,10 +9936,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9927,7 +9947,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -9942,19 +9962,19 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>479</v>
+        <v>199</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="O67" t="s" s="2">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9979,13 +9999,11 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>20</v>
+        <v>482</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -10003,10 +10021,10 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>90</v>
@@ -10021,27 +10039,27 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10061,22 +10079,22 @@
         <v>20</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>195</v>
+        <v>484</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>449</v>
+        <v>280</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>450</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10101,13 +10119,11 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>293</v>
+        <v>485</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10125,7 +10141,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10134,7 +10150,7 @@
         <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>102</v>
@@ -10143,38 +10159,38 @@
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -10186,19 +10202,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>298</v>
+        <v>453</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>299</v>
+        <v>454</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>300</v>
+        <v>455</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10223,13 +10239,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10247,16 +10263,16 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>102</v>
@@ -10265,31 +10281,31 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>305</v>
+        <v>133</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10308,19 +10324,19 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>300</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>454</v>
+        <v>301</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10345,13 +10361,13 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -10369,7 +10385,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10387,31 +10403,29 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10429,22 +10443,22 @@
         <v>20</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>431</v>
+        <v>361</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10493,7 +10507,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10514,10 +10528,10 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
@@ -10528,12 +10542,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10542,7 +10558,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
@@ -10551,19 +10567,23 @@
         <v>20</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>364</v>
+        <v>491</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10611,19 +10631,19 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
@@ -10632,10 +10652,10 @@
         <v>20</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
@@ -10646,10 +10666,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10657,11 +10677,11 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H73" t="s" s="2">
         <v>20</v>
       </c>
@@ -10672,13 +10692,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>366</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>137</v>
+        <v>368</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10717,29 +10737,31 @@
         <v>20</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC73" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>20</v>
@@ -10751,7 +10773,7 @@
         <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -10762,14 +10784,12 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>20</v>
       </c>
@@ -10778,7 +10798,7 @@
         <v>90</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
@@ -10790,13 +10810,13 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>490</v>
+        <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>491</v>
+        <v>137</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10835,19 +10855,17 @@
         <v>20</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10856,7 +10874,7 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>141</v>
@@ -10882,46 +10900,44 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="D75" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>20</v>
       </c>
@@ -10969,7 +10985,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10978,7 +10994,7 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>141</v>
@@ -10993,7 +11009,7 @@
         <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11004,45 +11020,45 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>441</v>
+        <v>155</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11067,11 +11083,13 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z76" t="s" s="2">
-        <v>495</v>
+        <v>20</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -11089,34 +11107,34 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>442</v>
+        <v>20</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>20</v>
@@ -11124,10 +11142,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11135,7 +11153,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>90</v>
@@ -11150,19 +11168,19 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>497</v>
+        <v>199</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="O77" t="s" s="2">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11187,13 +11205,11 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>20</v>
+        <v>501</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -11211,10 +11227,10 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>90</v>
@@ -11229,27 +11245,27 @@
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11269,22 +11285,22 @@
         <v>20</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>195</v>
+        <v>503</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>449</v>
+        <v>280</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>450</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11309,13 +11325,11 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>293</v>
+        <v>504</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11333,7 +11347,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11342,7 +11356,7 @@
         <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>102</v>
@@ -11351,38 +11365,38 @@
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>20</v>
@@ -11394,19 +11408,19 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>298</v>
+        <v>453</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>299</v>
+        <v>454</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>300</v>
+        <v>455</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11431,13 +11445,13 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -11455,16 +11469,16 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>102</v>
@@ -11473,31 +11487,31 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>305</v>
+        <v>133</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11516,19 +11530,19 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>453</v>
+        <v>300</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>454</v>
+        <v>301</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11553,13 +11567,13 @@
         <v>20</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -11577,7 +11591,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11595,18 +11609,140 @@
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AO80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP80" t="s" s="2">
+      <c r="P81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>20</v>
       </c>
     </row>
